--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Fzd2</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Fzd2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N2">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O2">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P2">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q2">
-        <v>0.01850941469933334</v>
+        <v>0.019766096853</v>
       </c>
       <c r="R2">
-        <v>0.166584732294</v>
+        <v>0.177894871677</v>
       </c>
       <c r="S2">
-        <v>0.003982292534558369</v>
+        <v>0.00293430309982614</v>
       </c>
       <c r="T2">
-        <v>0.003982292534558367</v>
+        <v>0.00293430309982614</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P3">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q3">
-        <v>3.586046015501111</v>
+        <v>2.065178425935</v>
       </c>
       <c r="R3">
-        <v>32.27441413951</v>
+        <v>18.586605833415</v>
       </c>
       <c r="S3">
-        <v>0.7715362429384227</v>
+        <v>0.306578456130321</v>
       </c>
       <c r="T3">
-        <v>0.7715362429384226</v>
+        <v>0.306578456130321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N4">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P4">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q4">
-        <v>0.5900118641095556</v>
+        <v>0.3627356082</v>
       </c>
       <c r="R4">
-        <v>5.310106776986</v>
+        <v>3.2646204738</v>
       </c>
       <c r="S4">
-        <v>0.1269407963412791</v>
+        <v>0.05384857857746631</v>
       </c>
       <c r="T4">
-        <v>0.1269407963412791</v>
+        <v>0.05384857857746631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N5">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P5">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q5">
-        <v>0.007533980190222222</v>
+        <v>0.01399631523</v>
       </c>
       <c r="R5">
-        <v>0.06780582171199999</v>
+        <v>0.12596683707</v>
       </c>
       <c r="S5">
-        <v>0.001620932566177428</v>
+        <v>0.002077771421994196</v>
       </c>
       <c r="T5">
-        <v>0.001620932566177428</v>
+        <v>0.002077771421994196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.08106100000000001</v>
+        <v>0.1503136666666667</v>
       </c>
       <c r="N6">
-        <v>0.243183</v>
+        <v>0.450941</v>
       </c>
       <c r="O6">
-        <v>0.004404799763312406</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="P6">
-        <v>0.004404799763312405</v>
+        <v>0.008029526741163598</v>
       </c>
       <c r="Q6">
-        <v>0.001963783786</v>
+        <v>0.03432252243755556</v>
       </c>
       <c r="R6">
-        <v>0.017674054074</v>
+        <v>0.308902701938</v>
       </c>
       <c r="S6">
-        <v>0.0004225072287540372</v>
+        <v>0.005095223641337457</v>
       </c>
       <c r="T6">
-        <v>0.0004225072287540371</v>
+        <v>0.005095223641337457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.8533935241547975</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="P7">
-        <v>0.8533935241547974</v>
+        <v>0.8389317081486641</v>
       </c>
       <c r="Q7">
-        <v>0.3804668670233333</v>
+        <v>3.586046015501111</v>
       </c>
       <c r="R7">
-        <v>3.424201803209999</v>
+        <v>32.27441413951</v>
       </c>
       <c r="S7">
-        <v>0.08185728121637487</v>
+        <v>0.532353252018343</v>
       </c>
       <c r="T7">
-        <v>0.08185728121637485</v>
+        <v>0.532353252018343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.583925666666667</v>
+        <v>2.758466666666667</v>
       </c>
       <c r="N8">
-        <v>7.751777000000001</v>
+        <v>8.275399999999999</v>
       </c>
       <c r="O8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="P8">
-        <v>0.1404087682726611</v>
+        <v>0.1473530807662759</v>
       </c>
       <c r="Q8">
-        <v>0.06259818320066667</v>
+        <v>0.6298664396888889</v>
       </c>
       <c r="R8">
-        <v>0.563383648806</v>
+        <v>5.6687979572</v>
       </c>
       <c r="S8">
-        <v>0.01346797193138206</v>
+        <v>0.09350450218880958</v>
       </c>
       <c r="T8">
-        <v>0.01346797193138206</v>
+        <v>0.09350450218880958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03299466666666667</v>
+        <v>0.1064366666666667</v>
       </c>
       <c r="N9">
-        <v>0.09898399999999999</v>
+        <v>0.31931</v>
       </c>
       <c r="O9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896315</v>
       </c>
       <c r="P9">
-        <v>0.001792907809228914</v>
+        <v>0.005685684343896314</v>
       </c>
       <c r="Q9">
-        <v>0.0007993287946666665</v>
+        <v>0.02430367750888889</v>
       </c>
       <c r="R9">
-        <v>0.007193959151999998</v>
+        <v>0.21873309758</v>
       </c>
       <c r="S9">
-        <v>0.0001719752430514864</v>
+        <v>0.003607912921902119</v>
       </c>
       <c r="T9">
-        <v>0.0001719752430514863</v>
+        <v>0.003607912921902118</v>
       </c>
     </row>
   </sheetData>
